--- a/medicine/Enfance/Ben_H._Winters/Ben_H._Winters.xlsx
+++ b/medicine/Enfance/Ben_H._Winters/Ben_H._Winters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ben H. Winters, né le 14 juin 1976 à Potomac, dans le Maryland, aux États-Unis, est un romancier, poète et dramaturge américain, auteur de roman policier, de science-fiction et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ben H. Winters grandit dans une banlieue cossue du Maryland.
 Il fait ses études supérieures à l'université Washington de Saint-Louis, où il est très actif dans le regroupement théâtral de l'institution.
@@ -548,36 +562,211 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Dernier meurtre avant la fin du monde
-Dernier meurtre avant la fin du monde (en), Super 8, 2015 ((en) The Last Policeman, 2012), trad. Valérie Le Plouhinec  (ISBN 978-2-37056-016-2)
+          <t>Série Dernier meurtre avant la fin du monde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dernier meurtre avant la fin du monde (en), Super 8, 2015 ((en) The Last Policeman, 2012), trad. Valérie Le Plouhinec  (ISBN 978-2-37056-016-2)
 J-77 (en), Super 8, 2016 ((en) Countdown City, 2013), trad. Valérie Le Plouhinec  (ISBN 978-2-37056-039-1)
-Impact (en), Super 8, 2015 ((en) World of Trouble, 2014), trad. Valérie Le Plouhinec  (ISBN 978-2-37056-027-8)
-Romans indépendants
-(en) Sense and Sensibility and Sea Monsters, 2009
+Impact (en), Super 8, 2015 ((en) World of Trouble, 2014), trad. Valérie Le Plouhinec  (ISBN 978-2-37056-027-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Sense and Sensibility and Sea Monsters, 2009
 (en) Android Karenina (en), 2010
 Parasites, Sonatine, 2021 ((en) Bedbugs, 2011), trad. Pierre Szczeciner  (ISBN 978-2-35584-836-0)
 Underground Airlines, ActuSF, 2018 ((en) Underground Airlines, 2016), trad. Éric Holstein  (ISBN 978-2-36629-931-1)Prix Sidewise 2016, prix Bob-Morane 2019 et grand prix de l'Imaginaire 2019
 Golden State, ActuSF, 2021 ((en) Golden State, 2019), trad. Éric Holstein  (ISBN 978-2-37686-282-6)
 (en) The Quiet Boy, 2021
 (en) The Bonus Room, 2023
-(en) Big Time, 2024
-Romans de littérature d'enfance et de jeunesse
-(en) The Secret Life of Ms. Finkleman, 2009
-(en) The Mystery of the Missing Everything, 2011
-Recueils de nouvelles et de poèmes
-(en) Literally Disturbed: Tales to Keep You Up at Night, 2013
+(en) Big Time, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Secret Life of Ms. Finkleman, 2009
+(en) The Mystery of the Missing Everything, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles et de poèmes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Literally Disturbed: Tales to Keep You Up at Night, 2013
 (en) New Tales to Keep You Up at Night, 2014
-(en) Romantically Disturbed: Love Poems to Rip Your Heart Out, 2015
-Nouvelles
-(en) The Reenactment, 2010
+(en) Romantically Disturbed: Love Poems to Rip Your Heart Out, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The Reenactment, 2010
 Le Garçon du goûteur, 2018 ((en) The Food Taster's Boy, 2013)Publiée dans l'anthologie Utopiales 2018 aux éditions ActuSF
 (en) Bring Her to Me, 2014
 (en) The Old Slow Man and His Gold Gun from Space, 2014
 (en) Bring Them Down, 2014
 (en) Five List, 2014
-(en) Heaven Come Down, 2015
-Théâtre
-Comédie
+(en) Heaven Come Down, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Comédie
 (en) The Jewish Comedy Thesaurus, 2007
 Comédies musicales pour adultes
 (en) Slut, 2005
@@ -589,39 +778,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ben_H._Winters</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ben_H._Winters</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix
-Prix Edgar-Allan-Poe 2013 du meilleur livre de poche original pour Dernier meurtre avant la fin du monde[1]
-Prix Philip-K.-Dick 2014 du meilleur roman pour J-77[2]
+Prix Edgar-Allan-Poe 2013 du meilleur livre de poche original pour Dernier meurtre avant la fin du monde
+Prix Philip-K.-Dick 2014 du meilleur roman pour J-77
 Nominations
-Prix Macavity 2013 du meilleur roman pour Dernier meurtre avant la fin du monde[3]
-Prix Anthony 2015 du meilleur livre de poche original pour Impact[4]
-Prix Edgar-Allan-Poe 2015 du meilleur livre de poche original pour Impact[1]</t>
+Prix Macavity 2013 du meilleur roman pour Dernier meurtre avant la fin du monde
+Prix Anthony 2015 du meilleur livre de poche original pour Impact
+Prix Edgar-Allan-Poe 2015 du meilleur livre de poche original pour Impact</t>
         </is>
       </c>
     </row>
